--- a/Data/Transitions/19561974Translation.xlsx
+++ b/Data/Transitions/19561974Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="692">
   <si>
     <t>id</t>
   </si>
@@ -592,7 +592,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1727,9 +1727,6 @@
   </si>
   <si>
     <t>{315.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{400.0: 0.9874941009910336, 50.0: 0.008788675988621757, 96.0: 0.0017704710454288894, 100.0: 0.0019467519749158477}</t>
@@ -4554,7 +4551,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>571</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4587,7 +4584,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4598,7 +4595,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4609,7 +4606,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4620,7 +4617,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4631,7 +4628,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4675,7 +4672,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4741,7 +4738,7 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4785,7 +4782,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4796,7 +4793,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4818,7 +4815,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4895,7 +4892,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4917,7 +4914,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4928,7 +4925,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4939,7 +4936,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4961,7 +4958,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5005,7 +5002,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5016,7 +5013,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5027,7 +5024,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5038,7 +5035,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5049,7 +5046,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5181,7 +5178,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5192,7 +5189,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5225,7 +5222,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5236,7 +5233,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5247,7 +5244,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5324,7 +5321,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5335,7 +5332,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5368,7 +5365,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5390,7 +5387,7 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5401,7 +5398,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5412,7 +5409,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5445,7 +5442,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5467,7 +5464,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5478,7 +5475,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5489,7 +5486,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5522,7 +5519,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5544,7 +5541,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5555,7 +5552,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5577,7 +5574,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5599,7 +5596,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5610,7 +5607,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5621,7 +5618,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5665,7 +5662,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5676,7 +5673,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5709,7 +5706,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5742,7 +5739,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5797,7 +5794,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5808,7 +5805,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5841,7 +5838,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5863,7 +5860,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5929,7 +5926,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5951,7 +5948,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5962,7 +5959,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5984,7 +5981,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6039,7 +6036,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6050,7 +6047,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6105,7 +6102,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6116,7 +6113,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6127,7 +6124,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6138,7 +6135,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6149,7 +6146,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6160,7 +6157,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6193,7 +6190,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6215,7 +6212,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6237,7 +6234,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6248,7 +6245,7 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6259,7 +6256,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6281,7 +6278,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6292,7 +6289,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6303,7 +6300,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6336,7 +6333,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6369,7 +6366,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6380,7 +6377,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6413,7 +6410,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6424,7 +6421,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6457,7 +6454,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6468,7 +6465,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6479,7 +6476,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6512,7 +6509,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6556,7 +6553,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6732,7 +6729,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6787,7 +6784,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6798,7 +6795,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6831,7 +6828,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6842,7 +6839,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6853,7 +6850,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6875,7 +6872,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6886,7 +6883,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6897,7 +6894,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6908,7 +6905,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6919,7 +6916,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6930,7 +6927,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6941,7 +6938,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6985,7 +6982,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7007,7 +7004,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7029,7 +7026,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7051,7 +7048,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7106,7 +7103,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7161,7 +7158,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7172,7 +7169,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7183,7 +7180,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7238,7 +7235,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7249,7 +7246,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7260,7 +7257,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7271,7 +7268,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7282,7 +7279,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7293,7 +7290,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7315,7 +7312,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7337,7 +7334,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7414,7 +7411,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7447,7 +7444,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7480,7 +7477,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7513,7 +7510,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7546,7 +7543,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7568,7 +7565,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7590,7 +7587,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7612,7 +7609,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7623,7 +7620,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7645,7 +7642,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7656,7 +7653,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7755,7 +7752,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
